--- a/Public/Reports/reporte_.xlsx
+++ b/Public/Reports/reporte_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="357">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,30 @@
     <t>TipoPromocion</t>
   </si>
   <si>
+    <t>2022-08-21 14:00:53</t>
+  </si>
+  <si>
+    <t>2022-08-21 22:28:48</t>
+  </si>
+  <si>
+    <t>CDO</t>
+  </si>
+  <si>
+    <t>2022-08-21 18:47:04</t>
+  </si>
+  <si>
+    <t>2022-08-21 21:22:35</t>
+  </si>
+  <si>
+    <t>OMax</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:04:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:12:47</t>
+  </si>
+  <si>
     <t>2022-08-22 09:10:21</t>
   </si>
   <si>
@@ -52,70 +76,1015 @@
     <t>Normal</t>
   </si>
   <si>
+    <t>2022-08-22 09:21:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:38:50</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:21:48</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:28:37</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:26:30</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:55:13</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:26:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:30:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:27:47</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:33:30</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:28:30</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:02:24</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:52:36</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:20:24</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:56:21</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:32:29</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:57:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:42:16</t>
+  </si>
+  <si>
+    <t>Lvpool</t>
+  </si>
+  <si>
+    <t>2022-08-22 09:59:31</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:28:38</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:04:37</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:18:09</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:06:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:26:13</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:13:07</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:18:54</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:30:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:51:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:30:32</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:59:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:30:55</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:45:51</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:32:00</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:44:10</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:37:54</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:01:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:44:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:04:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 10:45:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:11:04</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:09:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:21:06</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:09:12</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:24:42</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:11:06</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:31:24</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:12:08</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:29:15</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:28:04</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:31:58</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:31:15</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:47:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:32:10</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:08:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:39:05</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:48:34</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:39:58</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:03:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:46:51</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:47:22</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:47:19</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:24:40</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:56:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:12:46</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:58:04</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:09:53</t>
+  </si>
+  <si>
+    <t>2022-08-22 11:59:23</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:19:05</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:08:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:51:48</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:17:05</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:05:30</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:18:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:49:23</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:22:33</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:37:22</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:26:33</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:11:07</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:26:29</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:39:54</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:31:49</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:26:43</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:37:18</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:50:31</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:38:12</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:10:49</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:39:11</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:56:44</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:42:14</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:52:14</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:46:04</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:07:40</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:49:34</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:13:58</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:49:37</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:04:41</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:52:00</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:25:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:53:00</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:05:56</t>
+  </si>
+  <si>
+    <t>2022-08-22 12:56:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:31:36</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:11:13</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:34:33</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:19:40</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:10:21</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:24:56</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:46:47</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:30:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:39:52</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:42:19</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:47:59</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:47:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:10:47</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:51:08</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:12:41</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:51:59</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:16:08</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:53:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:30:39</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:57:22</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:12:00</t>
+  </si>
+  <si>
+    <t>2022-08-22 13:58:23</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:24:55</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:05:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:11:28</t>
+  </si>
+  <si>
     <t>2022-08-22 14:05:14</t>
   </si>
   <si>
     <t>2022-08-22 16:14:55</t>
   </si>
   <si>
+    <t>2022-08-22 14:05:18</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:52:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:07:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:32:36</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:07:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:17:29</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:09:15</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:36:17</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:19:17</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:24:27</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:23:17</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:46:10</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:24:25</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:37:36</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:26:21</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:55:22</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:27:19</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:09:51</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:39:39</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:19:15</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:44:29</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:55:06</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:45:11</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:48:22</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:52:43</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:38:43</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:56:42</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:03:53</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:56:56</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:54:46</t>
+  </si>
+  <si>
+    <t>2022-08-22 14:57:32</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:06:47</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:01:55</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:28:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:04:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:27:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:07:45</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:18:21</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:17:46</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:08:11</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:20:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:50:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:21:38</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:30:53</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:21:54</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:03:14</t>
+  </si>
+  <si>
     <t>2022-08-22 15:23:15</t>
   </si>
   <si>
     <t>2022-08-22 21:11:00</t>
   </si>
   <si>
+    <t>2022-08-22 15:29:49</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:50:10</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:33:55</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:46:12</t>
+  </si>
+  <si>
     <t>2022-08-22 15:38:56</t>
   </si>
   <si>
     <t>2022-08-22 20:30:01</t>
   </si>
   <si>
+    <t>2022-08-22 15:43:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:59:45</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:44:54</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:04:39</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:49:05</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:01:09</t>
+  </si>
+  <si>
+    <t>2022-08-22 15:56:27</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:02:43</t>
+  </si>
+  <si>
     <t>2022-08-22 16:05:16</t>
   </si>
   <si>
     <t>2022-08-22 17:20:20</t>
   </si>
   <si>
+    <t>2022-08-22 16:11:21</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:24:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:12:25</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:21:20</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:21:36</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:16:30</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:30:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:04:11</t>
+  </si>
+  <si>
     <t>2022-08-22 16:34:07</t>
   </si>
   <si>
     <t>2022-08-22 20:26:06</t>
   </si>
   <si>
+    <t>2022-08-22 16:34:36</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:05:18</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:39:13</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:11:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 16:42:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:36:31</t>
+  </si>
+  <si>
     <t>2022-08-22 16:43:34</t>
   </si>
   <si>
     <t>2022-08-22 19:14:18</t>
   </si>
   <si>
+    <t>2022-08-22 16:44:37</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:03:05</t>
+  </si>
+  <si>
     <t>2022-08-22 16:49:30</t>
   </si>
   <si>
     <t>2022-08-22 18:41:43</t>
   </si>
   <si>
+    <t>2022-08-22 16:57:49</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:37:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:01:34</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:26:33</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:19:24</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:39:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:19:41</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:57:07</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:30:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:07:47</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:32:12</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:48:02</t>
+  </si>
+  <si>
     <t>2022-08-22 17:34:02</t>
   </si>
   <si>
     <t>2022-08-22 18:06:35</t>
   </si>
   <si>
+    <t>2022-08-22 17:42:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:31:27</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:54:15</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:13:08</t>
+  </si>
+  <si>
+    <t>2022-08-22 17:58:05</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:19:55</t>
+  </si>
+  <si>
     <t>2022-08-22 17:58:54</t>
   </si>
   <si>
     <t>2022-08-22 20:15:33</t>
   </si>
   <si>
+    <t>2022-08-22 18:03:53</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:11:56</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:05:05</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:23:11</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:06:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:12:25</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:10:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:24:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:14:27</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:45:22</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:17:33</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:32:48</t>
+  </si>
+  <si>
     <t>2022-08-22 18:17:12</t>
   </si>
   <si>
     <t>2022-08-22 19:19:27</t>
   </si>
   <si>
+    <t>2022-08-22 18:18:59</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:28:27</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:27:41</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:41:22</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:31:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:30:52</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:32:00</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:25:31</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:36:45</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:36:55</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:42:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:22:31</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:47:49</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:06:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:51:33</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:07:19</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:53:21</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:12:30</t>
+  </si>
+  <si>
+    <t>2022-08-22 18:59:54</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:36:08</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:01:59</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:18:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:03:43</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:34:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:09:50</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:36:33</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:09:24</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:38:39</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:13:25</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:27:51</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:14:20</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:38:20</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:22:00</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:32:46</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:28:32</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:41:15</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:30:45</t>
+  </si>
+  <si>
+    <t>2022-08-22 22:00:06</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:40:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:01:40</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:45:48</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:56:01</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:57:08</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:44:44</t>
+  </si>
+  <si>
+    <t>2022-08-22 19:57:48</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:25:10</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:00:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:10:31</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:01:17</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:33:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:01:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:22:06</t>
+  </si>
+  <si>
     <t>2022-08-22 20:04:25</t>
   </si>
   <si>
     <t>2022-08-22 20:56:57</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:13:58</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:42:42</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:20:16</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:55:04</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:33:29</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:59:40</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:34:24</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:05:25</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:39:42</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:50:50</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:40:30</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:59:10</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:45:02</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:20:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:45:46</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:52:24</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:49:12</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:52:42</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:49:23</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:48:50</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:55:35</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:28:09</t>
+  </si>
+  <si>
+    <t>2022-08-22 20:57:28</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:13:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:15:47</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:42:49</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:21:19</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:56:03</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:21:20</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:40:34</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:37:59</t>
+  </si>
+  <si>
+    <t>2022-08-22 21:58:47</t>
   </si>
 </sst>
 </file>
@@ -123,7 +1092,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0,00"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -451,7 +1420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,7 +1457,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>48235</v>
+        <v>48117</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -497,13 +1466,13 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.3640393518518519</v>
+        <v>0.3527199074074074</v>
       </c>
       <c r="E2" s="1">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -511,7 +1480,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>48303</v>
+        <v>48214</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -520,252 +1489,3931 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>0.09005787037037037</v>
+        <v>0.1079976851851852</v>
       </c>
       <c r="E3" s="1">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>48329</v>
+        <v>48234</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>0.2414930555555556</v>
+        <v>0.006087962962962963</v>
       </c>
       <c r="E4" s="1">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>48332</v>
+        <v>48235</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>0.2021412037037037</v>
+        <v>0.3640393518518519</v>
       </c>
       <c r="E5" s="1">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="F5">
         <v>735</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>48337</v>
+        <v>48236</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0.05364583333333333</v>
+      </c>
+      <c r="E6" s="1">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>0.05212962962962963</v>
-      </c>
-      <c r="E6" s="1">
-        <v>42</v>
-      </c>
       <c r="F6">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>48342</v>
+        <v>48237</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>0.161099537037037</v>
+        <v>0.004733796296296297</v>
       </c>
       <c r="E7" s="1">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>48346</v>
+        <v>48238</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>0.1046759259259259</v>
+        <v>0.01994212962962963</v>
       </c>
       <c r="E8" s="1">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>48348</v>
+        <v>48239</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>0.07792824074074074</v>
+        <v>0.08624999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>48355</v>
+        <v>48241</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>0.02260416666666667</v>
+        <v>0.003969907407407407</v>
       </c>
       <c r="E10" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>48360</v>
+        <v>48242</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>0.09489583333333333</v>
+        <v>0.02354166666666667</v>
       </c>
       <c r="E11" s="1">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>48367</v>
+        <v>48243</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>0.04322916666666667</v>
+        <v>0.01930555555555555</v>
       </c>
       <c r="E12" s="1">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>48396</v>
+        <v>48245</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>0.03648148148148148</v>
+        <v>0.02509259259259259</v>
       </c>
       <c r="E13" s="1">
         <v>28</v>
       </c>
       <c r="F13">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>48246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>0.15625</v>
+      </c>
+      <c r="E14" s="1">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>734</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>48247</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>0.02021990740740741</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>734</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>48248</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>0.009398148148148149</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>734</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>48249</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>0.01363425925925926</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>734</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>48250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0.004016203703703704</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>734</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>48251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>0.01456018518518518</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>734</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>48252</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>0.02017361111111111</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>734</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>48253</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>0.01037037037037037</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>734</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>48254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>0.1334490740740741</v>
+      </c>
+      <c r="E22" s="1">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>734</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>48255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0.05774305555555555</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>734</v>
+      </c>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>48256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>0.01390046296296296</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>734</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>48257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>0.01806712962962963</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>734</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>48258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>0.008379629629629629</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>734</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>48259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>0.01076388888888889</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>734</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>48261</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>0.01409722222222222</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>734</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>48262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>0.01188657407407407</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>734</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>48264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>0.08604166666666667</v>
+      </c>
+      <c r="E30" s="1">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>734</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>48265</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>0.01159722222222222</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>734</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>48266</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>0.02490740740740741</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>734</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>48267</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>0.006585648148148148</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>734</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>48268</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>0.01600694444444445</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>734</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>48269</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>0.04202546296296297</v>
+      </c>
+      <c r="E35" s="1">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>734</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>48270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>0.0259375</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>734</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>48271</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37">
+        <v>0.01162037037037037</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>734</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>48272</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38">
+        <v>0.008206018518518519</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>734</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>48273</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39">
+        <v>0.01368055555555556</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>734</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>48274</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40">
+        <v>0.02975694444444444</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>734</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>48275</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41">
+        <v>0.03362268518518519</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>734</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>48276</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42">
+        <v>0.0216087962962963</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>734</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>48277</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43">
+        <v>0.01028935185185185</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>734</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>48278</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>0.03094907407407407</v>
+      </c>
+      <c r="E44" s="1">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>734</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>48279</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>0.00931712962962963</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>734</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>48280</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46">
+        <v>0.038125</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>734</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>48281</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47">
+        <v>0.00917824074074074</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>734</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>48282</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48">
+        <v>0.02265046296296296</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>734</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48283</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49">
+        <v>0.0121875</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>734</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>48284</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>734</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>48285</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51">
+        <v>0.015</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>734</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>48286</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52">
+        <v>0.01694444444444445</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>734</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>48287</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53">
+        <v>0.09379629629629629</v>
+      </c>
+      <c r="E53" s="1">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>735</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>48288</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54">
+        <v>0.1482407407407407</v>
+      </c>
+      <c r="E54" s="1">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>735</v>
+      </c>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>48289</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55">
+        <v>0.008981481481481481</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>734</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>48290</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56">
+        <v>0.0240625</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>734</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>48291</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57">
+        <v>0.0162037037037037</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>734</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>48292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58">
+        <v>0.03519675925925926</v>
+      </c>
+      <c r="E58" s="1">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>734</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>48293</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59">
+        <v>0.01517361111111111</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>734</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>48294</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60">
+        <v>0.006446759259259259</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>734</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>48295</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61">
+        <v>0.003935185185185185</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <v>734</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>48296</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62">
+        <v>0.09981481481481481</v>
+      </c>
+      <c r="E62" s="1">
+        <v>47</v>
+      </c>
+      <c r="F62">
+        <v>735</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>48297</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63">
+        <v>0.05663194444444444</v>
+      </c>
+      <c r="E63" s="1">
+        <v>19</v>
+      </c>
+      <c r="F63">
+        <v>735</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>48298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64">
+        <v>0.01677083333333333</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>734</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>48299</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65">
+        <v>0.02612268518518519</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>734</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>48300</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66">
+        <v>0.09349537037037037</v>
+      </c>
+      <c r="E66" s="1">
+        <v>40</v>
+      </c>
+      <c r="F66">
+        <v>735</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>48301</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67">
+        <v>0.01842592592592593</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>734</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>48302</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68">
+        <v>0.0878125</v>
+      </c>
+      <c r="E68" s="1">
+        <v>40</v>
+      </c>
+      <c r="F68">
+        <v>735</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>48303</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69">
+        <v>0.09005787037037037</v>
+      </c>
+      <c r="E69" s="1">
+        <v>63</v>
+      </c>
+      <c r="F69">
+        <v>735</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>48304</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70">
+        <v>0.03246527777777778</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>734</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>48305</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71">
+        <v>0.0177662037037037</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>734</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>48306</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72">
+        <v>0.007094907407407407</v>
+      </c>
+      <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>734</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>48307</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73">
+        <v>0.01877314814814815</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>734</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>48308</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D74">
+        <v>0.003587962962962963</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>734</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>48310</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75">
+        <v>0.0158912037037037</v>
+      </c>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>734</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>48311</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76">
+        <v>0.1341550925925926</v>
+      </c>
+      <c r="E76" s="1">
+        <v>60</v>
+      </c>
+      <c r="F76">
+        <v>735</v>
+      </c>
+      <c r="H76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>48312</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77">
+        <v>0.02015046296296296</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>734</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>48314</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78">
+        <v>0.02953703703703704</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>735</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>48315</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79">
+        <v>0.0275</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>735</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>48316</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80">
+        <v>0.007372685185185185</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>734</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>48317</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81">
+        <v>0.002210648148148148</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>734</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>48318</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82">
+        <v>0.1152777777777778</v>
+      </c>
+      <c r="E82" s="1">
+        <v>61</v>
+      </c>
+      <c r="F82">
+        <v>735</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>48319</v>
+      </c>
+      <c r="B83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83">
+        <v>0.004988425925925926</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>734</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>48320</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84">
+        <v>0.04016203703703704</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>735</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>48321</v>
+      </c>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85">
+        <v>0.006423611111111111</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>735</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>48322</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86">
+        <v>0.01877314814814815</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>735</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>48323</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87">
+        <v>0.01532407407407407</v>
+      </c>
+      <c r="E87" s="1">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>735</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>48324</v>
+      </c>
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88">
+        <v>0.007361111111111111</v>
+      </c>
+      <c r="E88" s="1">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>735</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>48325</v>
+      </c>
+      <c r="B89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89">
+        <v>0.03501157407407408</v>
+      </c>
+      <c r="E89" s="1">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>735</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>48326</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90">
+        <v>0.02121527777777778</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>735</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>48327</v>
+      </c>
+      <c r="B91" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91">
+        <v>0.006423611111111111</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>735</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>48328</v>
+      </c>
+      <c r="B92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92">
+        <v>0.1537037037037037</v>
+      </c>
+      <c r="E92" s="1">
+        <v>82</v>
+      </c>
+      <c r="F92">
+        <v>735</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>48329</v>
+      </c>
+      <c r="B93" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" t="s">
+        <v>196</v>
+      </c>
+      <c r="D93">
+        <v>0.2414930555555556</v>
+      </c>
+      <c r="E93" s="1">
+        <v>168</v>
+      </c>
+      <c r="F93">
+        <v>735</v>
+      </c>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>48330</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94">
+        <v>0.01413194444444445</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>735</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>48331</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95">
+        <v>0.008530092592592593</v>
+      </c>
+      <c r="E95" s="1">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>735</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>48332</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96">
+        <v>0.2021412037037037</v>
+      </c>
+      <c r="E96" s="1">
+        <v>140</v>
+      </c>
+      <c r="F96">
+        <v>735</v>
+      </c>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>48333</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97">
+        <v>0.01144675925925926</v>
+      </c>
+      <c r="E97" s="1">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>735</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>48334</v>
+      </c>
+      <c r="B98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98">
+        <v>0.05538194444444444</v>
+      </c>
+      <c r="E98" s="1">
+        <v>19</v>
+      </c>
+      <c r="F98">
+        <v>735</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>48335</v>
+      </c>
+      <c r="B99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" t="s">
+        <v>208</v>
+      </c>
+      <c r="D99">
+        <v>0.008379629629629629</v>
+      </c>
+      <c r="E99" s="1">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>735</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>48336</v>
+      </c>
+      <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100">
+        <v>0.004351851851851852</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>735</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>48337</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" t="s">
+        <v>212</v>
+      </c>
+      <c r="D101">
+        <v>0.05212962962962963</v>
+      </c>
+      <c r="E101" s="1">
+        <v>42</v>
+      </c>
+      <c r="F101">
+        <v>735</v>
+      </c>
+      <c r="H101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>48338</v>
+      </c>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102">
+        <v>0.008819444444444444</v>
+      </c>
+      <c r="E102" s="1">
+        <v>5</v>
+      </c>
+      <c r="F102">
+        <v>735</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>48339</v>
+      </c>
+      <c r="B103" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103">
+        <v>0.00619212962962963</v>
+      </c>
+      <c r="E103" s="1">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>735</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>48340</v>
+      </c>
+      <c r="B104" t="s">
+        <v>217</v>
+      </c>
+      <c r="C104" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104">
+        <v>0.038125</v>
+      </c>
+      <c r="E104" s="1">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>735</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>48341</v>
+      </c>
+      <c r="B105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105">
+        <v>0.0237037037037037</v>
+      </c>
+      <c r="E105" s="1">
+        <v>5</v>
+      </c>
+      <c r="F105">
+        <v>735</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>48342</v>
+      </c>
+      <c r="B106" t="s">
+        <v>221</v>
+      </c>
+      <c r="C106" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106">
+        <v>0.161099537037037</v>
+      </c>
+      <c r="E106" s="1">
+        <v>112</v>
+      </c>
+      <c r="F106">
+        <v>735</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>48343</v>
+      </c>
+      <c r="B107" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107">
+        <v>0.02131944444444444</v>
+      </c>
+      <c r="E107" s="1">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>735</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>48344</v>
+      </c>
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108">
+        <v>0.02210648148148148</v>
+      </c>
+      <c r="E108" s="1">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>735</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>48345</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109">
+        <v>0.03783564814814815</v>
+      </c>
+      <c r="E109" s="1">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>735</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>48346</v>
+      </c>
+      <c r="B110" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110">
+        <v>0.1046759259259259</v>
+      </c>
+      <c r="E110" s="1">
+        <v>77</v>
+      </c>
+      <c r="F110">
+        <v>735</v>
+      </c>
+      <c r="H110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>48347</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111">
+        <v>0.01282407407407407</v>
+      </c>
+      <c r="E111" s="1">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>735</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>48348</v>
+      </c>
+      <c r="B112" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112">
+        <v>0.07792824074074074</v>
+      </c>
+      <c r="E112" s="1">
+        <v>56</v>
+      </c>
+      <c r="F112">
+        <v>735</v>
+      </c>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>48349</v>
+      </c>
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113">
+        <v>0.02739583333333333</v>
+      </c>
+      <c r="E113" s="1">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>735</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>48350</v>
+      </c>
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114">
+        <v>0.01734953703703704</v>
+      </c>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>735</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>48351</v>
+      </c>
+      <c r="B115" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" t="s">
+        <v>240</v>
+      </c>
+      <c r="D115">
+        <v>0.0559375</v>
+      </c>
+      <c r="E115" s="1">
+        <v>19</v>
+      </c>
+      <c r="F115">
+        <v>735</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>48352</v>
+      </c>
+      <c r="B116" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116">
+        <v>0.02599537037037037</v>
+      </c>
+      <c r="E116" s="1">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>735</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>48353</v>
+      </c>
+      <c r="B117" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117">
+        <v>0.06788194444444444</v>
+      </c>
+      <c r="E117" s="1">
+        <v>26</v>
+      </c>
+      <c r="F117">
+        <v>735</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>48354</v>
+      </c>
+      <c r="B118" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118">
+        <v>0.01099537037037037</v>
+      </c>
+      <c r="E118" s="1">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>735</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>48355</v>
+      </c>
+      <c r="B119" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119">
+        <v>0.02260416666666667</v>
+      </c>
+      <c r="E119" s="1">
+        <v>28</v>
+      </c>
+      <c r="F119">
+        <v>735</v>
+      </c>
+      <c r="H119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>48357</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>250</v>
+      </c>
+      <c r="D120">
+        <v>0.0340162037037037</v>
+      </c>
+      <c r="E120" s="1">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>735</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>48358</v>
+      </c>
+      <c r="B121" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" t="s">
+        <v>252</v>
+      </c>
+      <c r="D121">
+        <v>0.01311342592592593</v>
+      </c>
+      <c r="E121" s="1">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>735</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>48359</v>
+      </c>
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122">
+        <v>0.01516203703703704</v>
+      </c>
+      <c r="E122" s="1">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>735</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>48360</v>
+      </c>
+      <c r="B123" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123">
+        <v>0.09489583333333333</v>
+      </c>
+      <c r="E123" s="1">
+        <v>70</v>
+      </c>
+      <c r="F123">
+        <v>735</v>
+      </c>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>48361</v>
+      </c>
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124">
+        <v>0.005590277777777777</v>
+      </c>
+      <c r="E124" s="1">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>735</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>48362</v>
+      </c>
+      <c r="B125" t="s">
+        <v>259</v>
+      </c>
+      <c r="C125" t="s">
+        <v>260</v>
+      </c>
+      <c r="D125">
+        <v>0.09590277777777778</v>
+      </c>
+      <c r="E125" s="1">
+        <v>47</v>
+      </c>
+      <c r="F125">
+        <v>735</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>48363</v>
+      </c>
+      <c r="B126" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126">
+        <v>0.004421296296296296</v>
+      </c>
+      <c r="E126" s="1">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>735</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>48364</v>
+      </c>
+      <c r="B127" t="s">
+        <v>263</v>
+      </c>
+      <c r="C127" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127">
+        <v>0.009409722222222222</v>
+      </c>
+      <c r="E127" s="1">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>735</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>48365</v>
+      </c>
+      <c r="B128" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" t="s">
+        <v>266</v>
+      </c>
+      <c r="D128">
+        <v>0.02146990740740741</v>
+      </c>
+      <c r="E128" s="1">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>735</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>48366</v>
+      </c>
+      <c r="B129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129">
+        <v>0.01059027777777778</v>
+      </c>
+      <c r="E129" s="1">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>735</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>48367</v>
+      </c>
+      <c r="B130" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130">
+        <v>0.04322916666666667</v>
+      </c>
+      <c r="E130" s="1">
+        <v>35</v>
+      </c>
+      <c r="F130">
+        <v>735</v>
+      </c>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>48368</v>
+      </c>
+      <c r="B131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131">
+        <v>0.04824074074074074</v>
+      </c>
+      <c r="E131" s="1">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>735</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>48369</v>
+      </c>
+      <c r="B132" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" t="s">
+        <v>274</v>
+      </c>
+      <c r="D132">
+        <v>0.009502314814814814</v>
+      </c>
+      <c r="E132" s="1">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>735</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>48370</v>
+      </c>
+      <c r="B133" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" t="s">
+        <v>276</v>
+      </c>
+      <c r="D133">
+        <v>0.0415625</v>
+      </c>
+      <c r="E133" s="1">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <v>735</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>48371</v>
+      </c>
+      <c r="B134" t="s">
+        <v>277</v>
+      </c>
+      <c r="C134" t="s">
+        <v>278</v>
+      </c>
+      <c r="D134">
+        <v>0.1204976851851852</v>
+      </c>
+      <c r="E134" s="1">
+        <v>61</v>
+      </c>
+      <c r="F134">
+        <v>735</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>48372</v>
+      </c>
+      <c r="B135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" t="s">
+        <v>280</v>
+      </c>
+      <c r="D135">
+        <v>0.04178240740740741</v>
+      </c>
+      <c r="E135" s="1">
+        <v>12</v>
+      </c>
+      <c r="F135">
+        <v>735</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>48373</v>
+      </c>
+      <c r="B136" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" t="s">
+        <v>282</v>
+      </c>
+      <c r="D136">
+        <v>0.02773148148148148</v>
+      </c>
+      <c r="E136" s="1">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>735</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>48374</v>
+      </c>
+      <c r="B137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137">
+        <v>0.05469907407407407</v>
+      </c>
+      <c r="E137" s="1">
+        <v>19</v>
+      </c>
+      <c r="F137">
+        <v>735</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>48375</v>
+      </c>
+      <c r="B138" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" t="s">
+        <v>286</v>
+      </c>
+      <c r="D138">
+        <v>0.01094907407407407</v>
+      </c>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138">
+        <v>735</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>48376</v>
+      </c>
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" t="s">
+        <v>288</v>
+      </c>
+      <c r="D139">
+        <v>0.01329861111111111</v>
+      </c>
+      <c r="E139" s="1">
+        <v>5</v>
+      </c>
+      <c r="F139">
+        <v>735</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>48377</v>
+      </c>
+      <c r="B140" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" t="s">
+        <v>290</v>
+      </c>
+      <c r="D140">
+        <v>0.02516203703703704</v>
+      </c>
+      <c r="E140" s="1">
+        <v>5</v>
+      </c>
+      <c r="F140">
+        <v>735</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>48378</v>
+      </c>
+      <c r="B141" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" t="s">
+        <v>292</v>
+      </c>
+      <c r="D141">
+        <v>0.05311342592592593</v>
+      </c>
+      <c r="E141" s="1">
+        <v>19</v>
+      </c>
+      <c r="F141">
+        <v>735</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>48379</v>
+      </c>
+      <c r="B142" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" t="s">
+        <v>294</v>
+      </c>
+      <c r="D142">
+        <v>0.02105324074074074</v>
+      </c>
+      <c r="E142" s="1">
+        <v>5</v>
+      </c>
+      <c r="F142">
+        <v>735</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>48380</v>
+      </c>
+      <c r="B143" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143" t="s">
+        <v>296</v>
+      </c>
+      <c r="D143">
+        <v>0.01855324074074074</v>
+      </c>
+      <c r="E143" s="1">
+        <v>5</v>
+      </c>
+      <c r="F143">
+        <v>735</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>48381</v>
+      </c>
+      <c r="B144" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" t="s">
+        <v>298</v>
+      </c>
+      <c r="D144">
+        <v>0.0203125</v>
+      </c>
+      <c r="E144" s="1">
+        <v>5</v>
+      </c>
+      <c r="F144">
+        <v>735</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>48382</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s">
+        <v>300</v>
+      </c>
+      <c r="D145">
+        <v>0.01002314814814815</v>
+      </c>
+      <c r="E145" s="1">
+        <v>5</v>
+      </c>
+      <c r="F145">
+        <v>735</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>48383</v>
+      </c>
+      <c r="B146" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" t="s">
+        <v>302</v>
+      </c>
+      <c r="D146">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="E146" s="1">
+        <v>5</v>
+      </c>
+      <c r="F146">
+        <v>735</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>48384</v>
+      </c>
+      <c r="B147" t="s">
+        <v>303</v>
+      </c>
+      <c r="C147" t="s">
+        <v>304</v>
+      </c>
+      <c r="D147">
+        <v>0.007476851851851852</v>
+      </c>
+      <c r="E147" s="1">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>735</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>48385</v>
+      </c>
+      <c r="B148" t="s">
+        <v>305</v>
+      </c>
+      <c r="C148" t="s">
+        <v>306</v>
+      </c>
+      <c r="D148">
+        <v>0.008831018518518519</v>
+      </c>
+      <c r="E148" s="1">
+        <v>5</v>
+      </c>
+      <c r="F148">
+        <v>735</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>48386</v>
+      </c>
+      <c r="B149" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" t="s">
+        <v>308</v>
+      </c>
+      <c r="D149">
+        <v>0.1037152777777778</v>
+      </c>
+      <c r="E149" s="1">
+        <v>47</v>
+      </c>
+      <c r="F149">
+        <v>735</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>48389</v>
+      </c>
+      <c r="B150" t="s">
+        <v>309</v>
+      </c>
+      <c r="C150" t="s">
+        <v>310</v>
+      </c>
+      <c r="D150">
+        <v>0.01438657407407407</v>
+      </c>
+      <c r="E150" s="1">
+        <v>5</v>
+      </c>
+      <c r="F150">
+        <v>735</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>48390</v>
+      </c>
+      <c r="B151" t="s">
+        <v>311</v>
+      </c>
+      <c r="C151" t="s">
+        <v>312</v>
+      </c>
+      <c r="D151">
+        <v>0.007094907407407407</v>
+      </c>
+      <c r="E151" s="1">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>735</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>48391</v>
+      </c>
+      <c r="B152" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" t="s">
+        <v>314</v>
+      </c>
+      <c r="D152">
+        <v>0.03305555555555555</v>
+      </c>
+      <c r="E152" s="1">
+        <v>5</v>
+      </c>
+      <c r="F152">
+        <v>735</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>48392</v>
+      </c>
+      <c r="B153" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" t="s">
+        <v>316</v>
+      </c>
+      <c r="D153">
+        <v>0.01900462962962963</v>
+      </c>
+      <c r="E153" s="1">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>735</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>48393</v>
+      </c>
+      <c r="B154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" t="s">
+        <v>318</v>
+      </c>
+      <c r="D154">
+        <v>0.007280092592592592</v>
+      </c>
+      <c r="E154" s="1">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>735</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>48394</v>
+      </c>
+      <c r="B155" t="s">
+        <v>319</v>
+      </c>
+      <c r="C155" t="s">
+        <v>320</v>
+      </c>
+      <c r="D155">
+        <v>0.02221064814814815</v>
+      </c>
+      <c r="E155" s="1">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>735</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>48395</v>
+      </c>
+      <c r="B156" t="s">
+        <v>321</v>
+      </c>
+      <c r="C156" t="s">
+        <v>322</v>
+      </c>
+      <c r="D156">
+        <v>0.0143287037037037</v>
+      </c>
+      <c r="E156" s="1">
+        <v>5</v>
+      </c>
+      <c r="F156">
+        <v>735</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>48396</v>
+      </c>
+      <c r="B157" t="s">
+        <v>323</v>
+      </c>
+      <c r="C157" t="s">
+        <v>324</v>
+      </c>
+      <c r="D157">
+        <v>0.03648148148148148</v>
+      </c>
+      <c r="E157" s="1">
+        <v>28</v>
+      </c>
+      <c r="F157">
+        <v>735</v>
+      </c>
+      <c r="H157" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>48397</v>
+      </c>
+      <c r="B158" t="s">
+        <v>325</v>
+      </c>
+      <c r="C158" t="s">
+        <v>326</v>
+      </c>
+      <c r="D158">
+        <v>0.0199537037037037</v>
+      </c>
+      <c r="E158" s="1">
+        <v>5</v>
+      </c>
+      <c r="F158">
+        <v>735</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>48398</v>
+      </c>
+      <c r="B159" t="s">
+        <v>327</v>
+      </c>
+      <c r="C159" t="s">
+        <v>328</v>
+      </c>
+      <c r="D159">
+        <v>0.02416666666666667</v>
+      </c>
+      <c r="E159" s="1">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>735</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>48399</v>
+      </c>
+      <c r="B160" t="s">
+        <v>329</v>
+      </c>
+      <c r="C160" t="s">
+        <v>330</v>
+      </c>
+      <c r="D160">
+        <v>0.01818287037037037</v>
+      </c>
+      <c r="E160" s="1">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>735</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>48400</v>
+      </c>
+      <c r="B161" t="s">
+        <v>331</v>
+      </c>
+      <c r="C161" t="s">
+        <v>332</v>
+      </c>
+      <c r="D161">
+        <v>0.02153935185185185</v>
+      </c>
+      <c r="E161" s="1">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>735</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>48401</v>
+      </c>
+      <c r="B162" t="s">
+        <v>333</v>
+      </c>
+      <c r="C162" t="s">
+        <v>334</v>
+      </c>
+      <c r="D162">
+        <v>0.007731481481481482</v>
+      </c>
+      <c r="E162" s="1">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <v>735</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>48402</v>
+      </c>
+      <c r="B163" t="s">
+        <v>335</v>
+      </c>
+      <c r="C163" t="s">
+        <v>336</v>
+      </c>
+      <c r="D163">
+        <v>0.01296296296296296</v>
+      </c>
+      <c r="E163" s="1">
+        <v>5</v>
+      </c>
+      <c r="F163">
+        <v>735</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>48403</v>
+      </c>
+      <c r="B164" t="s">
+        <v>337</v>
+      </c>
+      <c r="C164" t="s">
+        <v>338</v>
+      </c>
+      <c r="D164">
+        <v>0.02460648148148148</v>
+      </c>
+      <c r="E164" s="1">
+        <v>5</v>
+      </c>
+      <c r="F164">
+        <v>735</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>48404</v>
+      </c>
+      <c r="B165" t="s">
+        <v>339</v>
+      </c>
+      <c r="C165" t="s">
+        <v>340</v>
+      </c>
+      <c r="D165">
+        <v>0.004606481481481481</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>735</v>
+      </c>
+      <c r="H165" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1">
-        <f>SUM(E2:E13)</f>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>48405</v>
+      </c>
+      <c r="B166" t="s">
+        <v>341</v>
+      </c>
+      <c r="C166" t="s">
+        <v>342</v>
+      </c>
+      <c r="D166">
+        <v>0.002430555555555556</v>
+      </c>
+      <c r="E166" s="1">
         <v>0</v>
+      </c>
+      <c r="F166">
+        <v>735</v>
+      </c>
+      <c r="H166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>48406</v>
+      </c>
+      <c r="B167" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167" t="s">
+        <v>344</v>
+      </c>
+      <c r="D167">
+        <v>0.04128472222222222</v>
+      </c>
+      <c r="E167" s="1">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>735</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>48407</v>
+      </c>
+      <c r="B168" t="s">
+        <v>345</v>
+      </c>
+      <c r="C168" t="s">
+        <v>346</v>
+      </c>
+      <c r="D168">
+        <v>0.02261574074074074</v>
+      </c>
+      <c r="E168" s="1">
+        <v>5</v>
+      </c>
+      <c r="F168">
+        <v>735</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>48408</v>
+      </c>
+      <c r="B169" t="s">
+        <v>347</v>
+      </c>
+      <c r="C169" t="s">
+        <v>348</v>
+      </c>
+      <c r="D169">
+        <v>0.01082175925925926</v>
+      </c>
+      <c r="E169" s="1">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>735</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>48409</v>
+      </c>
+      <c r="B170" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170">
+        <v>0.01877314814814815</v>
+      </c>
+      <c r="E170" s="1">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>735</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>48410</v>
+      </c>
+      <c r="B171" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" t="s">
+        <v>352</v>
+      </c>
+      <c r="D171">
+        <v>0.02412037037037037</v>
+      </c>
+      <c r="E171" s="1">
+        <v>5</v>
+      </c>
+      <c r="F171">
+        <v>735</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>48411</v>
+      </c>
+      <c r="B172" t="s">
+        <v>353</v>
+      </c>
+      <c r="C172" t="s">
+        <v>354</v>
+      </c>
+      <c r="D172">
+        <v>0.01335648148148148</v>
+      </c>
+      <c r="E172" s="1">
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>735</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>48412</v>
+      </c>
+      <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" t="s">
+        <v>356</v>
+      </c>
+      <c r="D173">
+        <v>0.01444444444444444</v>
+      </c>
+      <c r="E173" s="1">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>735</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="E174" s="1">
+        <v>2801</v>
       </c>
     </row>
   </sheetData>
